--- a/bookings.xlsx
+++ b/bookings.xlsx
@@ -1,41 +1,60 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hcjarch\PycharmProjects\linebot1.0\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2995C28C-C70C-4C31-BF78-28F657BEF995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="4356" yWindow="1812" windowWidth="8220" windowHeight="10428" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="11268" yWindow="1608" windowWidth="8220" windowHeight="10428" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="新細明體"/>
+      <family val="2"/>
       <charset val="136"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="新細明體"/>
+      <family val="2"/>
       <charset val="136"/>
-      <family val="2"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -51,88 +70,29 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -452,161 +412,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="104" workbookViewId="0">
-      <selection activeCell="D12" sqref="A2:D12"/>
+      <selection activeCell="C5" sqref="A2:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="14.6640625" customWidth="1" style="1" min="1" max="1"/>
-    <col width="23.44140625" customWidth="1" style="1" min="2" max="2"/>
-    <col width="16.5546875" customWidth="1" style="1" min="3" max="3"/>
+    <col min="1" max="1" width="14.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
-      <c r="B1" s="0" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
+      <c r="B1" t="s">
+        <v>1</v>
       </c>
-      <c r="C1" s="0" t="inlineStr">
-        <is>
-          <t>time</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="inlineStr">
-        <is>
-          <t>黃薰儀</t>
-        </is>
-      </c>
-      <c r="B2" s="0" t="inlineStr">
-        <is>
-          <t>2024-04-15</t>
-        </is>
-      </c>
-      <c r="C2" s="0" t="inlineStr">
-        <is>
-          <t>13:30</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="inlineStr">
-        <is>
-          <t>黃薰儀</t>
-        </is>
-      </c>
-      <c r="B3" s="0" t="inlineStr">
-        <is>
-          <t>2024-04-15</t>
-        </is>
-      </c>
-      <c r="C3" s="0" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="inlineStr">
-        <is>
-          <t>黃薰儀</t>
-        </is>
-      </c>
-      <c r="B4" s="0" t="inlineStr">
-        <is>
-          <t>2024-04-15</t>
-        </is>
-      </c>
-      <c r="C4" s="0" t="inlineStr">
-        <is>
-          <t>14:30</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="inlineStr">
-        <is>
-          <t>黃薰儀</t>
-        </is>
-      </c>
-      <c r="B5" s="0" t="inlineStr">
-        <is>
-          <t>2024-04-15</t>
-        </is>
-      </c>
-      <c r="C5" s="0" t="inlineStr">
-        <is>
-          <t>11:30</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="inlineStr">
-        <is>
-          <t>黃薰儀</t>
-        </is>
-      </c>
-      <c r="B6" s="0" t="inlineStr">
-        <is>
-          <t>2024-04-15</t>
-        </is>
-      </c>
-      <c r="C6" s="0" t="inlineStr">
-        <is>
-          <t>10:30</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="inlineStr">
-        <is>
-          <t>黃薰儀</t>
-        </is>
-      </c>
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t>2024-04-19</t>
-        </is>
-      </c>
-      <c r="C7" s="0" t="inlineStr">
-        <is>
-          <t>10:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>苡秀</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2024-04-15</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>10:00</t>
-        </is>
+      <c r="C1" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/bookings.xlsx
+++ b/bookings.xlsx
@@ -1,60 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hcjarch\PycharmProjects\linebot1.0\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2995C28C-C70C-4C31-BF78-28F657BEF995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11268" yWindow="1608" windowWidth="8220" windowHeight="10428" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="新細明體"/>
       <family val="2"/>
-      <charset val="136"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="新細明體"/>
+      <charset val="136"/>
+      <family val="3"/>
       <sz val="9"/>
-      <name val="新細明體"/>
-      <family val="2"/>
-      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -70,34 +50,88 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -107,42 +141,42 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -172,29 +206,12 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -224,23 +241,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -302,6 +302,13 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -310,13 +317,6 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -381,64 +381,612 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A2:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="104" workbookViewId="0">
-      <selection activeCell="C5" sqref="A2:C5"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:XFD33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" style="1" customWidth="1"/>
+    <col width="25.375" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>黃薰儀</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2024-05-11</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>黃薰儀</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2024-05-11</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>黃薰儀</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2024-05-11</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>黃薰儀</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2024-05-10</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>黃薰儀</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2024-05-11</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>黃薰儀</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2024-05-11</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>黃薰儀</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2024-05-11</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>黃薰儀</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2024-05-10</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>宸 慈</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2024-05-11</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>劉筱畇</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2024-05-11</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Abby</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2024-05-10</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>周庭豪</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2024-05-11</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Hsuan</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2024-05-10</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>語❤</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2024-05-10</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>呂庭儀</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2024-05-12</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>hu ⍙</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2024-05-12</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>葉柔坊</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2024-05-13</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>妏</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2024-05-11</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>品坊</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2024-05-10</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>呈</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2024-05-10</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>呈</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2024-05-10</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>薈予</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2024-05-10</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>寧</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2024-05-10</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>倫榕</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2024-05-12</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>林孟諠</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2024-05-12</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Evan Lin</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2024-05-12</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>語❤</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2024-05-12</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>翔</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2024-05-12</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>亮亮</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2024-05-12</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Abby</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2024-05-13</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>林綵穎</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2024-05-12</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>宋顥歆</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2024-05-13</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>鍾</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2024-05-13</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>黃薰儀</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2024-05-13</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>